--- a/Training/KarveRibbon/KRibbon/Languages.xlsx
+++ b/Training/KarveRibbon/KRibbon/Languages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="1350">
   <si>
     <t>Project</t>
   </si>
@@ -4009,6 +4009,66 @@
   </si>
   <si>
     <t>Edit</t>
+  </si>
+  <si>
+    <t>msgError83</t>
+  </si>
+  <si>
+    <t>Specified DataBase not found</t>
+  </si>
+  <si>
+    <t>No es troba la Base de Dades</t>
+  </si>
+  <si>
+    <t>No se encuentra la Base de Datos</t>
+  </si>
+  <si>
+    <t>msgError100</t>
+  </si>
+  <si>
+    <t>msgError103</t>
+  </si>
+  <si>
+    <t>msgError131</t>
+  </si>
+  <si>
+    <t>msgError141</t>
+  </si>
+  <si>
+    <t>DataBase Server not found</t>
+  </si>
+  <si>
+    <t>Invalid User Id or Password</t>
+  </si>
+  <si>
+    <t>Syntax Error in SQL sentence</t>
+  </si>
+  <si>
+    <t>Table not found</t>
+  </si>
+  <si>
+    <t>No se encuentra el Servidor de la Base de Datos</t>
+  </si>
+  <si>
+    <t>No es troba el Servidor de la Base de Dades</t>
+  </si>
+  <si>
+    <t>Error de sintaxi en sentencia SQL</t>
+  </si>
+  <si>
+    <t>No se encuentra la Tabla</t>
+  </si>
+  <si>
+    <t>No es troba la Taula</t>
+  </si>
+  <si>
+    <t>Error de sintaxi en sentència SQL</t>
+  </si>
+  <si>
+    <t>Incorrecte Id d'usuari i/o contrasenya</t>
+  </si>
+  <si>
+    <t>Incorrecto Id de usuario y/o contraseña</t>
   </si>
 </sst>
 </file>
@@ -4151,7 +4211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4391,6 +4451,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAFAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4552,7 +4618,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4565,6 +4631,7 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4612,6 +4679,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFAFAF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4886,9 +4958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K320"/>
+  <dimension ref="A1:K325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A305" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A323" sqref="A323"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14869,6 +14943,161 @@
         <v>1323</v>
       </c>
     </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B321" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C321" s="12" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E321" s="12" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F321" s="12">
+        <v>321</v>
+      </c>
+      <c r="G321" s="12" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H321" s="12"/>
+      <c r="I321" s="12" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J321" s="12"/>
+      <c r="K321" s="12" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B322" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D322" s="12" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E322" s="12" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F322" s="12">
+        <v>322</v>
+      </c>
+      <c r="G322" s="12" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H322" s="12"/>
+      <c r="I322" s="12" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J322" s="12"/>
+      <c r="K322" s="12" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B323" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D323" s="12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E323" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F323" s="12">
+        <v>323</v>
+      </c>
+      <c r="G323" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H323" s="12"/>
+      <c r="I323" s="12" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J323" s="12"/>
+      <c r="K323" s="12" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B324" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D324" s="12" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E324" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F324" s="12">
+        <v>324</v>
+      </c>
+      <c r="G324" s="12" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H324" s="12"/>
+      <c r="I324" s="12" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J324" s="12"/>
+      <c r="K324" s="12" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B325" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D325" s="12" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E325" s="12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F325" s="12">
+        <v>325</v>
+      </c>
+      <c r="G325" s="12" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H325" s="12"/>
+      <c r="I325" s="12" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J325" s="12"/>
+      <c r="K325" s="12" t="s">
+        <v>1345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Training/KarveRibbon/KRibbon/Languages.xlsx
+++ b/Training/KarveRibbon/KRibbon/Languages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="1372">
   <si>
     <t>Project</t>
   </si>
@@ -2241,12 +2241,6 @@
     <t>Recalculate Pendings</t>
   </si>
   <si>
-    <t>lrgrVariosconfiguracion</t>
-  </si>
-  <si>
-    <t>lrrgrKarve</t>
-  </si>
-  <si>
     <t>Validar</t>
   </si>
   <si>
@@ -4069,6 +4063,78 @@
   </si>
   <si>
     <t>lrbtnValidar</t>
+  </si>
+  <si>
+    <t>lrgrVariosConfiguracion</t>
+  </si>
+  <si>
+    <t>lrgrKarve</t>
+  </si>
+  <si>
+    <t>lrbtnCinta</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Cinta Opciones</t>
+  </si>
+  <si>
+    <t>Cinta d'Opcions</t>
+  </si>
+  <si>
+    <t>Ribbon\Configuración\Configuración\Cinta Opciones</t>
+  </si>
+  <si>
+    <t>msgErrorTitulo</t>
+  </si>
+  <si>
+    <t>Título Mensaje de Error</t>
+  </si>
+  <si>
+    <t>Mensaje de Error</t>
+  </si>
+  <si>
+    <t>Missatge d'Error</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>Marcar Todos</t>
+  </si>
+  <si>
+    <t>Marcar tots</t>
+  </si>
+  <si>
+    <t>Mark All</t>
+  </si>
+  <si>
+    <t>Desmarcar Todos</t>
+  </si>
+  <si>
+    <t>Desmarcar tots</t>
+  </si>
+  <si>
+    <t>Unmark All</t>
+  </si>
+  <si>
+    <t>lrdbCintaOpcionesDesmarcarTodos</t>
+  </si>
+  <si>
+    <t>lrdbCintaOpcionesMarcarTodos</t>
+  </si>
+  <si>
+    <t>msgSaveCintaOpcionesOK</t>
+  </si>
+  <si>
+    <t>El orden de los grupos de las pestañas de la cinta seleccionadas, se han restaurado a su posición inicial.</t>
+  </si>
+  <si>
+    <t>L'ordre dels grups de les pestanyes de la cinta seleccionades, s'han restaurat a la seva posició inicial.</t>
+  </si>
+  <si>
+    <t>The order of the groups of selected ribbon tabs, have been restored to their initial position.</t>
   </si>
 </sst>
 </file>
@@ -4958,17 +5024,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K325"/>
+  <dimension ref="A1:K330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B80" sqref="B1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="35.140625" style="1" customWidth="1"/>
@@ -5025,7 +5090,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>45</v>
@@ -5056,7 +5121,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>62</v>
@@ -5087,7 +5152,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>50</v>
@@ -5118,7 +5183,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>53</v>
@@ -5149,7 +5214,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>73</v>
@@ -5180,7 +5245,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>55</v>
@@ -5211,7 +5276,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>58</v>
@@ -5242,7 +5307,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>65</v>
@@ -5273,7 +5338,7 @@
         <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>68</v>
@@ -5301,10 +5366,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>75</v>
@@ -5332,10 +5397,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>76</v>
@@ -5363,10 +5428,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>77</v>
@@ -5394,10 +5459,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>78</v>
@@ -5425,10 +5490,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>229</v>
@@ -5456,27 +5521,27 @@
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F16" s="5">
         <v>16</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -5487,10 +5552,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>50</v>
@@ -5518,10 +5583,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>230</v>
@@ -5549,10 +5614,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>231</v>
@@ -5580,10 +5645,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>232</v>
@@ -5611,10 +5676,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>233</v>
@@ -5642,10 +5707,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>234</v>
@@ -5673,10 +5738,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>68</v>
@@ -5704,10 +5769,10 @@
         <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>244</v>
@@ -5738,7 +5803,7 @@
         <v>93</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>94</v>
@@ -5747,11 +5812,11 @@
         <v>25</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6" t="s">
@@ -5769,7 +5834,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>14</v>
@@ -5801,10 +5866,10 @@
         <v>12</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>17</v>
@@ -5836,10 +5901,10 @@
         <v>12</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>87</v>
@@ -5867,10 +5932,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>88</v>
@@ -5901,7 +5966,7 @@
         <v>97</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>98</v>
@@ -5929,10 +5994,10 @@
         <v>12</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>98</v>
@@ -5960,10 +6025,10 @@
         <v>12</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>101</v>
@@ -5991,10 +6056,10 @@
         <v>12</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>102</v>
@@ -6025,7 +6090,7 @@
         <v>105</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>106</v>
@@ -6053,10 +6118,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>106</v>
@@ -6087,7 +6152,7 @@
         <v>109</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>110</v>
@@ -6115,10 +6180,10 @@
         <v>12</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>110</v>
@@ -6149,7 +6214,7 @@
         <v>113</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>114</v>
@@ -6177,10 +6242,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>114</v>
@@ -6208,10 +6273,10 @@
         <v>12</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>114</v>
@@ -6239,10 +6304,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>115</v>
@@ -6270,10 +6335,10 @@
         <v>12</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>116</v>
@@ -6301,10 +6366,10 @@
         <v>12</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>117</v>
@@ -6332,10 +6397,10 @@
         <v>12</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>118</v>
@@ -6363,10 +6428,10 @@
         <v>12</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>119</v>
@@ -6394,10 +6459,10 @@
         <v>12</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>120</v>
@@ -6425,10 +6490,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>121</v>
@@ -6459,7 +6524,7 @@
         <v>134</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>135</v>
@@ -6487,10 +6552,10 @@
         <v>12</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>135</v>
@@ -6518,10 +6583,10 @@
         <v>12</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>135</v>
@@ -6549,10 +6614,10 @@
         <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>136</v>
@@ -6580,10 +6645,10 @@
         <v>12</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>137</v>
@@ -6611,10 +6676,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>138</v>
@@ -6645,7 +6710,7 @@
         <v>153</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>154</v>
@@ -6673,10 +6738,10 @@
         <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>98</v>
@@ -6704,10 +6769,10 @@
         <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>155</v>
@@ -6735,10 +6800,10 @@
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>156</v>
@@ -6766,10 +6831,10 @@
         <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>157</v>
@@ -6797,10 +6862,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>158</v>
@@ -6828,10 +6893,10 @@
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>159</v>
@@ -6859,10 +6924,10 @@
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>160</v>
@@ -6890,10 +6955,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>161</v>
@@ -6921,10 +6986,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>162</v>
@@ -6952,10 +7017,10 @@
         <v>12</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>163</v>
@@ -6983,10 +7048,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>175</v>
@@ -7014,10 +7079,10 @@
         <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>164</v>
@@ -7045,10 +7110,10 @@
         <v>12</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>165</v>
@@ -7076,10 +7141,10 @@
         <v>12</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>166</v>
@@ -7107,10 +7172,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>167</v>
@@ -7138,10 +7203,10 @@
         <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>168</v>
@@ -7169,10 +7234,10 @@
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>169</v>
@@ -7200,10 +7265,10 @@
         <v>12</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>170</v>
@@ -7231,10 +7296,10 @@
         <v>12</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>171</v>
@@ -7262,10 +7327,10 @@
         <v>12</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>172</v>
@@ -7293,10 +7358,10 @@
         <v>12</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>173</v>
@@ -7324,10 +7389,10 @@
         <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>174</v>
@@ -7355,10 +7420,10 @@
         <v>12</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>106</v>
@@ -7386,10 +7451,10 @@
         <v>12</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>220</v>
@@ -7417,10 +7482,10 @@
         <v>12</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>40</v>
@@ -7448,10 +7513,10 @@
         <v>12</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>247</v>
@@ -7479,10 +7544,10 @@
         <v>12</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>248</v>
@@ -7510,10 +7575,10 @@
         <v>12</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>249</v>
@@ -7541,10 +7606,10 @@
         <v>12</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>250</v>
@@ -7572,10 +7637,10 @@
         <v>12</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>251</v>
@@ -7603,10 +7668,10 @@
         <v>12</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>252</v>
@@ -7634,10 +7699,10 @@
         <v>12</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>253</v>
@@ -7665,10 +7730,10 @@
         <v>12</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>254</v>
@@ -7696,10 +7761,10 @@
         <v>12</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>463</v>
@@ -7727,10 +7792,10 @@
         <v>12</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>98</v>
@@ -7758,10 +7823,10 @@
         <v>12</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>247</v>
@@ -7789,10 +7854,10 @@
         <v>12</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>110</v>
@@ -7820,10 +7885,10 @@
         <v>12</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>280</v>
@@ -7851,10 +7916,10 @@
         <v>12</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>110</v>
@@ -7882,10 +7947,10 @@
         <v>12</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>271</v>
@@ -7913,10 +7978,10 @@
         <v>12</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>272</v>
@@ -7944,10 +8009,10 @@
         <v>12</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>273</v>
@@ -7975,10 +8040,10 @@
         <v>12</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>280</v>
@@ -8006,10 +8071,10 @@
         <v>12</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>281</v>
@@ -8037,10 +8102,10 @@
         <v>12</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>282</v>
@@ -8068,10 +8133,10 @@
         <v>12</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>283</v>
@@ -8099,10 +8164,10 @@
         <v>12</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>284</v>
@@ -8130,10 +8195,10 @@
         <v>12</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>114</v>
@@ -8161,10 +8226,10 @@
         <v>12</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>285</v>
@@ -8192,10 +8257,10 @@
         <v>12</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>286</v>
@@ -8223,10 +8288,10 @@
         <v>12</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>135</v>
@@ -8254,10 +8319,10 @@
         <v>12</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>287</v>
@@ -8285,10 +8350,10 @@
         <v>12</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>288</v>
@@ -8316,10 +8381,10 @@
         <v>12</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>289</v>
@@ -8347,10 +8412,10 @@
         <v>12</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>290</v>
@@ -8378,10 +8443,10 @@
         <v>12</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>291</v>
@@ -8409,10 +8474,10 @@
         <v>12</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>292</v>
@@ -8440,10 +8505,10 @@
         <v>12</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>297</v>
@@ -8471,10 +8536,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>298</v>
@@ -8502,10 +8567,10 @@
         <v>12</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>293</v>
@@ -8533,10 +8598,10 @@
         <v>12</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>294</v>
@@ -8564,10 +8629,10 @@
         <v>12</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>299</v>
@@ -8595,10 +8660,10 @@
         <v>12</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>295</v>
@@ -8626,10 +8691,10 @@
         <v>12</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>300</v>
@@ -8657,10 +8722,10 @@
         <v>12</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>296</v>
@@ -8688,10 +8753,10 @@
         <v>12</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>301</v>
@@ -8719,10 +8784,10 @@
         <v>12</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>302</v>
@@ -8750,10 +8815,10 @@
         <v>12</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E122" s="10" t="s">
         <v>303</v>
@@ -8781,10 +8846,10 @@
         <v>12</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>304</v>
@@ -8812,10 +8877,10 @@
         <v>12</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>305</v>
@@ -8843,10 +8908,10 @@
         <v>12</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>306</v>
@@ -8877,7 +8942,7 @@
         <v>356</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>247</v>
@@ -8908,7 +8973,7 @@
         <v>357</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>247</v>
@@ -8936,10 +9001,10 @@
         <v>12</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>361</v>
@@ -8967,10 +9032,10 @@
         <v>12</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>362</v>
@@ -8998,10 +9063,10 @@
         <v>12</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>363</v>
@@ -9029,10 +9094,10 @@
         <v>12</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>384</v>
@@ -9060,10 +9125,10 @@
         <v>12</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>364</v>
@@ -9094,7 +9159,7 @@
         <v>358</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>365</v>
@@ -9122,10 +9187,10 @@
         <v>12</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>366</v>
@@ -9153,10 +9218,10 @@
         <v>12</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>367</v>
@@ -9184,10 +9249,10 @@
         <v>12</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>368</v>
@@ -9215,10 +9280,10 @@
         <v>12</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>369</v>
@@ -9249,7 +9314,7 @@
         <v>359</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>370</v>
@@ -9277,10 +9342,10 @@
         <v>12</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>371</v>
@@ -9308,10 +9373,10 @@
         <v>12</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>372</v>
@@ -9339,10 +9404,10 @@
         <v>12</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>360</v>
@@ -9370,10 +9435,10 @@
         <v>12</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>373</v>
@@ -9401,10 +9466,10 @@
         <v>12</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>374</v>
@@ -9435,7 +9500,7 @@
         <v>407</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>280</v>
@@ -9466,7 +9531,7 @@
         <v>408</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>280</v>
@@ -9494,10 +9559,10 @@
         <v>12</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>280</v>
@@ -9525,10 +9590,10 @@
         <v>12</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>409</v>
@@ -9556,10 +9621,10 @@
         <v>12</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>410</v>
@@ -9587,10 +9652,10 @@
         <v>12</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>411</v>
@@ -9618,10 +9683,10 @@
         <v>12</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>412</v>
@@ -9649,10 +9714,10 @@
         <v>12</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>413</v>
@@ -9683,7 +9748,7 @@
         <v>424</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>426</v>
@@ -9714,7 +9779,7 @@
         <v>425</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>426</v>
@@ -9742,10 +9807,10 @@
         <v>12</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>427</v>
@@ -9773,10 +9838,10 @@
         <v>12</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>428</v>
@@ -9804,10 +9869,10 @@
         <v>12</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>429</v>
@@ -9835,10 +9900,10 @@
         <v>12</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>430</v>
@@ -9866,10 +9931,10 @@
         <v>12</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>431</v>
@@ -9900,7 +9965,7 @@
         <v>444</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>446</v>
@@ -9931,7 +9996,7 @@
         <v>445</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>446</v>
@@ -9959,10 +10024,10 @@
         <v>12</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>447</v>
@@ -9990,10 +10055,10 @@
         <v>12</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>448</v>
@@ -10021,10 +10086,10 @@
         <v>12</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>449</v>
@@ -10052,10 +10117,10 @@
         <v>12</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>450</v>
@@ -10083,10 +10148,10 @@
         <v>12</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>451</v>
@@ -10117,7 +10182,7 @@
         <v>488</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>490</v>
@@ -10148,7 +10213,7 @@
         <v>489</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>490</v>
@@ -10176,10 +10241,10 @@
         <v>12</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>470</v>
@@ -10207,10 +10272,10 @@
         <v>12</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>491</v>
@@ -10238,10 +10303,10 @@
         <v>12</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>492</v>
@@ -10269,10 +10334,10 @@
         <v>12</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>493</v>
@@ -10300,10 +10365,10 @@
         <v>12</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>494</v>
@@ -10331,10 +10396,10 @@
         <v>12</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>513</v>
@@ -10362,10 +10427,10 @@
         <v>12</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>495</v>
@@ -10393,10 +10458,10 @@
         <v>12</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>496</v>
@@ -10424,10 +10489,10 @@
         <v>12</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>497</v>
@@ -10455,10 +10520,10 @@
         <v>12</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>498</v>
@@ -10489,7 +10554,7 @@
         <v>518</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>519</v>
@@ -10517,10 +10582,10 @@
         <v>12</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E179" s="8" t="s">
         <v>520</v>
@@ -10548,10 +10613,10 @@
         <v>12</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>521</v>
@@ -10579,10 +10644,10 @@
         <v>12</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>522</v>
@@ -10610,10 +10675,10 @@
         <v>12</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>523</v>
@@ -10641,10 +10706,10 @@
         <v>12</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>524</v>
@@ -10675,7 +10740,7 @@
         <v>537</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>538</v>
@@ -10703,10 +10768,10 @@
         <v>12</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>538</v>
@@ -10734,10 +10799,10 @@
         <v>12</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>538</v>
@@ -10765,10 +10830,10 @@
         <v>12</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>539</v>
@@ -10796,10 +10861,10 @@
         <v>12</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>540</v>
@@ -10827,10 +10892,10 @@
         <v>12</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>541</v>
@@ -10858,10 +10923,10 @@
         <v>12</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>542</v>
@@ -10892,7 +10957,7 @@
         <v>553</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E191" s="10" t="s">
         <v>554</v>
@@ -10920,10 +10985,10 @@
         <v>12</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>554</v>
@@ -10951,10 +11016,10 @@
         <v>12</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E193" s="10" t="s">
         <v>555</v>
@@ -10982,10 +11047,10 @@
         <v>12</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E194" s="10" t="s">
         <v>556</v>
@@ -11013,10 +11078,10 @@
         <v>12</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E195" s="10" t="s">
         <v>557</v>
@@ -11044,10 +11109,10 @@
         <v>12</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E196" s="10" t="s">
         <v>558</v>
@@ -11075,10 +11140,10 @@
         <v>12</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E197" s="10" t="s">
         <v>559</v>
@@ -11109,7 +11174,7 @@
         <v>571</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>574</v>
@@ -11137,10 +11202,10 @@
         <v>12</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>575</v>
@@ -11168,10 +11233,10 @@
         <v>12</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>576</v>
@@ -11202,7 +11267,7 @@
         <v>572</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>577</v>
@@ -11230,10 +11295,10 @@
         <v>12</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>578</v>
@@ -11261,10 +11326,10 @@
         <v>12</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>579</v>
@@ -11295,7 +11360,7 @@
         <v>573</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>468</v>
@@ -11323,10 +11388,10 @@
         <v>12</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>580</v>
@@ -11357,7 +11422,7 @@
         <v>594</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>598</v>
@@ -11388,7 +11453,7 @@
         <v>595</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>599</v>
@@ -11416,10 +11481,10 @@
         <v>12</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>599</v>
@@ -11447,10 +11512,10 @@
         <v>12</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>600</v>
@@ -11478,10 +11543,10 @@
         <v>12</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>580</v>
@@ -11512,7 +11577,7 @@
         <v>596</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>601</v>
@@ -11540,10 +11605,10 @@
         <v>12</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E212" s="6" t="s">
         <v>602</v>
@@ -11571,10 +11636,10 @@
         <v>12</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>603</v>
@@ -11602,10 +11667,10 @@
         <v>12</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>604</v>
@@ -11633,10 +11698,10 @@
         <v>12</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>605</v>
@@ -11664,10 +11729,10 @@
         <v>12</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>606</v>
@@ -11695,10 +11760,10 @@
         <v>12</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E217" s="6" t="s">
         <v>607</v>
@@ -11726,10 +11791,10 @@
         <v>12</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E218" s="6" t="s">
         <v>137</v>
@@ -11757,10 +11822,10 @@
         <v>12</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>608</v>
@@ -11791,7 +11856,7 @@
         <v>597</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E220" s="7" t="s">
         <v>296</v>
@@ -11819,10 +11884,10 @@
         <v>12</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E221" s="7" t="s">
         <v>609</v>
@@ -11850,10 +11915,10 @@
         <v>12</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E222" s="7" t="s">
         <v>610</v>
@@ -11881,10 +11946,10 @@
         <v>12</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E223" s="7" t="s">
         <v>611</v>
@@ -11912,10 +11977,10 @@
         <v>12</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E224" s="7" t="s">
         <v>612</v>
@@ -11943,10 +12008,10 @@
         <v>12</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E225" s="7" t="s">
         <v>613</v>
@@ -11974,10 +12039,10 @@
         <v>12</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E226" s="7" t="s">
         <v>614</v>
@@ -12005,10 +12070,10 @@
         <v>12</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E227" s="7" t="s">
         <v>615</v>
@@ -12036,10 +12101,10 @@
         <v>12</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E228" s="7" t="s">
         <v>616</v>
@@ -12067,10 +12132,10 @@
         <v>12</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E229" s="7" t="s">
         <v>617</v>
@@ -12101,7 +12166,7 @@
         <v>461</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E230" s="4" t="s">
         <v>463</v>
@@ -12132,7 +12197,7 @@
         <v>462</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>463</v>
@@ -12160,10 +12225,10 @@
         <v>12</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>98</v>
@@ -12191,10 +12256,10 @@
         <v>12</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>247</v>
@@ -12222,10 +12287,10 @@
         <v>12</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>110</v>
@@ -12253,10 +12318,10 @@
         <v>12</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>280</v>
@@ -12284,10 +12349,10 @@
         <v>12</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>135</v>
@@ -12318,7 +12383,7 @@
         <v>466</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>468</v>
@@ -12349,7 +12414,7 @@
         <v>467</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>468</v>
@@ -12377,10 +12442,10 @@
         <v>12</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>469</v>
@@ -12408,10 +12473,10 @@
         <v>12</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>98</v>
@@ -12439,10 +12504,10 @@
         <v>12</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>247</v>
@@ -12470,10 +12535,10 @@
         <v>12</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>470</v>
@@ -12501,10 +12566,10 @@
         <v>12</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>413</v>
@@ -12532,10 +12597,10 @@
         <v>12</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>110</v>
@@ -12563,10 +12628,10 @@
         <v>12</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>280</v>
@@ -12594,10 +12659,10 @@
         <v>12</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>471</v>
@@ -12625,10 +12690,10 @@
         <v>12</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>135</v>
@@ -12659,7 +12724,7 @@
         <v>480</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E248" s="6" t="s">
         <v>482</v>
@@ -12690,7 +12755,7 @@
         <v>481</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>482</v>
@@ -12718,10 +12783,10 @@
         <v>12</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E250" s="6" t="s">
         <v>98</v>
@@ -12749,10 +12814,10 @@
         <v>12</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E251" s="6" t="s">
         <v>106</v>
@@ -12780,10 +12845,10 @@
         <v>12</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E252" s="6" t="s">
         <v>247</v>
@@ -12811,10 +12876,10 @@
         <v>12</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>483</v>
@@ -12842,10 +12907,10 @@
         <v>12</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E254" s="6" t="s">
         <v>470</v>
@@ -12873,10 +12938,10 @@
         <v>12</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>413</v>
@@ -12904,10 +12969,10 @@
         <v>12</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E256" s="6" t="s">
         <v>451</v>
@@ -12935,10 +13000,10 @@
         <v>12</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E257" s="6" t="s">
         <v>110</v>
@@ -12966,10 +13031,10 @@
         <v>12</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E258" s="6" t="s">
         <v>280</v>
@@ -12997,10 +13062,10 @@
         <v>12</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E259" s="6" t="s">
         <v>135</v>
@@ -13031,7 +13096,7 @@
         <v>657</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>659</v>
@@ -13062,7 +13127,7 @@
         <v>658</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E261" s="8" t="s">
         <v>659</v>
@@ -13090,10 +13155,10 @@
         <v>12</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E262" s="8" t="s">
         <v>659</v>
@@ -13121,27 +13186,27 @@
         <v>12</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>1302</v>
+        <v>1350</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>1002</v>
+        <v>1354</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>660</v>
+        <v>1352</v>
       </c>
       <c r="F263" s="8">
         <v>263</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>669</v>
+        <v>1353</v>
       </c>
       <c r="H263" s="8"/>
       <c r="I263" s="8" t="s">
-        <v>675</v>
+        <v>1351</v>
       </c>
       <c r="J263" s="8"/>
       <c r="K263" s="8" t="s">
-        <v>660</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -13152,27 +13217,27 @@
         <v>12</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F264" s="8">
         <v>264</v>
       </c>
       <c r="G264" s="8" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="H264" s="8"/>
       <c r="I264" s="8" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J264" s="8"/>
       <c r="K264" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -13183,27 +13248,27 @@
         <v>12</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F265" s="8">
         <v>265</v>
       </c>
       <c r="G265" s="8" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H265" s="8"/>
       <c r="I265" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J265" s="8"/>
       <c r="K265" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -13214,27 +13279,27 @@
         <v>12</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F266" s="8">
         <v>266</v>
       </c>
       <c r="G266" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H266" s="8"/>
       <c r="I266" s="8" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="J266" s="8"/>
       <c r="K266" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -13245,27 +13310,27 @@
         <v>12</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>490</v>
+        <v>663</v>
       </c>
       <c r="F267" s="8">
         <v>267</v>
       </c>
       <c r="G267" s="8" t="s">
-        <v>499</v>
+        <v>672</v>
       </c>
       <c r="H267" s="8"/>
       <c r="I267" s="8" t="s">
-        <v>503</v>
+        <v>676</v>
       </c>
       <c r="J267" s="8"/>
       <c r="K267" s="8" t="s">
-        <v>490</v>
+        <v>663</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -13276,27 +13341,27 @@
         <v>12</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>577</v>
+        <v>490</v>
       </c>
       <c r="F268" s="8">
         <v>268</v>
       </c>
       <c r="G268" s="8" t="s">
-        <v>584</v>
+        <v>499</v>
       </c>
       <c r="H268" s="8"/>
       <c r="I268" s="8" t="s">
-        <v>240</v>
+        <v>503</v>
       </c>
       <c r="J268" s="8"/>
       <c r="K268" s="8" t="s">
-        <v>577</v>
+        <v>490</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -13307,27 +13372,27 @@
         <v>12</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>664</v>
+        <v>577</v>
       </c>
       <c r="F269" s="8">
         <v>269</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>664</v>
+        <v>584</v>
       </c>
       <c r="H269" s="8"/>
       <c r="I269" s="8" t="s">
-        <v>664</v>
+        <v>240</v>
       </c>
       <c r="J269" s="8"/>
       <c r="K269" s="8" t="s">
-        <v>664</v>
+        <v>577</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -13338,27 +13403,27 @@
         <v>12</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>94</v>
+        <v>664</v>
       </c>
       <c r="F270" s="8">
         <v>270</v>
       </c>
       <c r="G270" s="8" t="s">
-        <v>96</v>
+        <v>664</v>
       </c>
       <c r="H270" s="8"/>
       <c r="I270" s="8" t="s">
-        <v>95</v>
+        <v>664</v>
       </c>
       <c r="J270" s="8"/>
       <c r="K270" s="8" t="s">
-        <v>94</v>
+        <v>664</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -13369,27 +13434,27 @@
         <v>12</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>665</v>
+        <v>94</v>
       </c>
       <c r="F271" s="8">
         <v>271</v>
       </c>
       <c r="G271" s="8" t="s">
-        <v>665</v>
+        <v>96</v>
       </c>
       <c r="H271" s="8"/>
       <c r="I271" s="8" t="s">
-        <v>677</v>
+        <v>95</v>
       </c>
       <c r="J271" s="8"/>
       <c r="K271" s="8" t="s">
-        <v>665</v>
+        <v>94</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -13400,27 +13465,27 @@
         <v>12</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F272" s="8">
         <v>272</v>
       </c>
       <c r="G272" s="8" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H272" s="8"/>
       <c r="I272" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J272" s="8"/>
       <c r="K272" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -13431,58 +13496,58 @@
         <v>12</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F273" s="8">
         <v>273</v>
       </c>
       <c r="G273" s="8" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H273" s="8"/>
       <c r="I273" s="8" t="s">
-        <v>375</v>
+        <v>678</v>
       </c>
       <c r="J273" s="8"/>
       <c r="K273" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D274" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E274" s="8" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C274" s="9" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D274" s="9" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E274" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="F274" s="9">
+      <c r="F274" s="8">
         <v>274</v>
       </c>
-      <c r="G274" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="H274" s="9"/>
-      <c r="I274" s="9" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J274" s="9"/>
-      <c r="K274" s="9" t="s">
-        <v>681</v>
+      <c r="G274" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="H274" s="8"/>
+      <c r="I274" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="J274" s="8"/>
+      <c r="K274" s="8" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -13493,27 +13558,27 @@
         <v>12</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F275" s="9">
         <v>275</v>
       </c>
       <c r="G275" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H275" s="9"/>
       <c r="I275" s="9" t="s">
-        <v>684</v>
+        <v>1056</v>
       </c>
       <c r="J275" s="9"/>
       <c r="K275" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -13524,62 +13589,58 @@
         <v>12</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F276" s="9">
         <v>276</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H276" s="9"/>
       <c r="I276" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J276" s="9"/>
       <c r="K276" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E277" s="9" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B277" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C277" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="D277" s="10" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E277" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F277" s="10">
+      <c r="F277" s="9">
         <v>277</v>
       </c>
-      <c r="G277" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H277" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I277" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J277" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K277" s="10" t="s">
-        <v>29</v>
+      <c r="G277" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="H277" s="9"/>
+      <c r="I277" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="J277" s="9"/>
+      <c r="K277" s="9" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -13590,10 +13651,10 @@
         <v>12</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>1316</v>
+        <v>686</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E278" s="10" t="s">
         <v>29</v>
@@ -13625,31 +13686,31 @@
         <v>12</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F279" s="10">
         <v>279</v>
       </c>
       <c r="G279" s="10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H279" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I279" s="10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J279" s="10" t="s">
         <v>4</v>
       </c>
       <c r="K279" s="10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -13660,31 +13721,31 @@
         <v>12</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F280" s="10">
         <v>280</v>
       </c>
       <c r="G280" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H280" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I280" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J280" s="10" t="s">
         <v>4</v>
       </c>
       <c r="K280" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -13695,62 +13756,66 @@
         <v>12</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E281" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F281" s="10">
         <v>281</v>
       </c>
       <c r="G281" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H281" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I281" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J281" s="10" t="s">
         <v>4</v>
       </c>
       <c r="K281" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D282" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E282" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="F282" s="2">
+      <c r="F282" s="10">
         <v>282</v>
       </c>
-      <c r="G282" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="H282" s="2"/>
-      <c r="I282" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="J282" s="2"/>
-      <c r="K282" s="2" t="s">
-        <v>688</v>
+      <c r="G282" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H282" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I282" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J282" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K282" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -13761,27 +13826,27 @@
         <v>12</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1320</v>
+        <v>687</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F283" s="2">
         <v>283</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H283" s="2"/>
       <c r="I283" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J283" s="2"/>
       <c r="K283" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -13792,58 +13857,58 @@
         <v>12</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F284" s="2">
         <v>284</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H284" s="2"/>
       <c r="I284" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J284" s="2"/>
       <c r="K284" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E285" s="2" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E285" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="F285" s="3">
+      <c r="F285" s="2">
         <v>285</v>
       </c>
-      <c r="G285" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="H285" s="3"/>
-      <c r="I285" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="J285" s="3"/>
-      <c r="K285" s="3" t="s">
-        <v>471</v>
+      <c r="G285" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="J285" s="2"/>
+      <c r="K285" s="2" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
@@ -13854,10 +13919,10 @@
         <v>12</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>1322</v>
+        <v>692</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>471</v>
@@ -13885,27 +13950,27 @@
         <v>12</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>693</v>
+        <v>471</v>
       </c>
       <c r="F287" s="3">
         <v>287</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>728</v>
+        <v>479</v>
       </c>
       <c r="H287" s="3"/>
       <c r="I287" s="3" t="s">
-        <v>731</v>
+        <v>474</v>
       </c>
       <c r="J287" s="3"/>
       <c r="K287" s="3" t="s">
-        <v>693</v>
+        <v>471</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -13916,27 +13981,27 @@
         <v>12</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F288" s="3">
         <v>288</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="H288" s="3"/>
       <c r="I288" s="3" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="J288" s="3"/>
       <c r="K288" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -13947,27 +14012,27 @@
         <v>12</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F289" s="3">
         <v>289</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H289" s="3"/>
       <c r="I289" s="3" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="J289" s="3"/>
       <c r="K289" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -13978,27 +14043,27 @@
         <v>12</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F290" s="3">
         <v>290</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="H290" s="3"/>
       <c r="I290" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J290" s="3"/>
       <c r="K290" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -14009,27 +14074,27 @@
         <v>12</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F291" s="3">
         <v>291</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="H291" s="3"/>
       <c r="I291" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J291" s="3"/>
       <c r="K291" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -14040,27 +14105,27 @@
         <v>12</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F292" s="3">
         <v>292</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H292" s="3"/>
       <c r="I292" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J292" s="3"/>
       <c r="K292" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -14071,27 +14136,27 @@
         <v>12</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F293" s="3">
         <v>293</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H293" s="3"/>
       <c r="I293" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="J293" s="3"/>
       <c r="K293" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -14102,27 +14167,27 @@
         <v>12</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F294" s="3">
         <v>294</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H294" s="3"/>
       <c r="I294" s="3" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="J294" s="3"/>
       <c r="K294" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
@@ -14133,27 +14198,27 @@
         <v>12</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F295" s="3">
         <v>295</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H295" s="3"/>
       <c r="I295" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J295" s="3"/>
       <c r="K295" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -14164,27 +14229,27 @@
         <v>12</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
       <c r="F296" s="3">
         <v>296</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="H296" s="3"/>
       <c r="I296" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J296" s="3"/>
       <c r="K296" s="3" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -14195,27 +14260,27 @@
         <v>12</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="F297" s="3">
         <v>297</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="H297" s="3"/>
       <c r="I297" s="3" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="J297" s="3"/>
       <c r="K297" s="3" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -14226,27 +14291,27 @@
         <v>12</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F298" s="3">
         <v>298</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H298" s="3"/>
       <c r="I298" s="3" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="J298" s="3"/>
       <c r="K298" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
@@ -14257,27 +14322,27 @@
         <v>12</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F299" s="3">
         <v>299</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H299" s="3"/>
       <c r="I299" s="3" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="J299" s="3"/>
       <c r="K299" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
@@ -14288,27 +14353,27 @@
         <v>12</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F300" s="3">
         <v>300</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H300" s="3"/>
       <c r="I300" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J300" s="3"/>
       <c r="K300" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
@@ -14319,27 +14384,27 @@
         <v>12</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F301" s="3">
         <v>301</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H301" s="3"/>
       <c r="I301" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J301" s="3"/>
       <c r="K301" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
@@ -14350,58 +14415,58 @@
         <v>12</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F302" s="3">
         <v>302</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H302" s="3"/>
       <c r="I302" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J302" s="3"/>
       <c r="K302" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E303" s="3" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="D303" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E303" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F303" s="4">
+      <c r="F303" s="3">
         <v>303</v>
       </c>
-      <c r="G303" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H303" s="4"/>
-      <c r="I303" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="J303" s="4"/>
-      <c r="K303" s="4" t="s">
-        <v>296</v>
+      <c r="G303" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="H303" s="3"/>
+      <c r="I303" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
@@ -14412,27 +14477,27 @@
         <v>12</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1339</v>
+        <v>1348</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>744</v>
+        <v>296</v>
       </c>
       <c r="F304" s="4">
         <v>304</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>760</v>
+        <v>324</v>
       </c>
       <c r="H304" s="4"/>
       <c r="I304" s="4" t="s">
-        <v>752</v>
+        <v>375</v>
       </c>
       <c r="J304" s="4"/>
       <c r="K304" s="4" t="s">
-        <v>744</v>
+        <v>296</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -14443,27 +14508,27 @@
         <v>12</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F305" s="4">
         <v>305</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H305" s="4"/>
       <c r="I305" s="4" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J305" s="4"/>
       <c r="K305" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
@@ -14474,27 +14539,27 @@
         <v>12</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F306" s="4">
         <v>306</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H306" s="4"/>
       <c r="I306" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="J306" s="4"/>
       <c r="K306" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
@@ -14505,27 +14570,27 @@
         <v>12</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>741</v>
+        <v>1339</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>664</v>
+        <v>744</v>
       </c>
       <c r="F307" s="4">
         <v>307</v>
       </c>
       <c r="G307" s="4" t="s">
-        <v>664</v>
+        <v>760</v>
       </c>
       <c r="H307" s="4"/>
       <c r="I307" s="4" t="s">
-        <v>664</v>
+        <v>752</v>
       </c>
       <c r="J307" s="4"/>
       <c r="K307" s="4" t="s">
-        <v>664</v>
+        <v>744</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -14536,10 +14601,10 @@
         <v>12</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>664</v>
@@ -14567,27 +14632,27 @@
         <v>12</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>747</v>
+        <v>664</v>
       </c>
       <c r="F309" s="4">
         <v>309</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>763</v>
+        <v>664</v>
       </c>
       <c r="H309" s="4"/>
       <c r="I309" s="4" t="s">
-        <v>755</v>
+        <v>664</v>
       </c>
       <c r="J309" s="4"/>
       <c r="K309" s="4" t="s">
-        <v>747</v>
+        <v>664</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
@@ -14598,27 +14663,27 @@
         <v>12</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F310" s="4">
         <v>310</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="H310" s="4"/>
       <c r="I310" s="4" t="s">
-        <v>1059</v>
+        <v>753</v>
       </c>
       <c r="J310" s="4"/>
       <c r="K310" s="4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
@@ -14629,27 +14694,27 @@
         <v>12</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F311" s="4">
         <v>311</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="H311" s="4"/>
       <c r="I311" s="4" t="s">
-        <v>756</v>
+        <v>1057</v>
       </c>
       <c r="J311" s="4"/>
       <c r="K311" s="4" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -14660,27 +14725,27 @@
         <v>12</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F312" s="4">
         <v>312</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H312" s="4"/>
       <c r="I312" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="J312" s="4"/>
       <c r="K312" s="4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
@@ -14691,58 +14756,58 @@
         <v>12</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F313" s="4">
         <v>313</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="H313" s="4"/>
       <c r="I313" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="J313" s="4"/>
       <c r="K313" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B314" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D314" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="E314" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F314" s="5">
+      <c r="A314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D314" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="F314" s="4">
         <v>314</v>
       </c>
-      <c r="G314" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="H314" s="5"/>
-      <c r="I314" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="J314" s="5"/>
-      <c r="K314" s="5" t="s">
-        <v>743</v>
+      <c r="G314" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="H314" s="4"/>
+      <c r="I314" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="J314" s="4"/>
+      <c r="K314" s="4" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
@@ -14753,62 +14818,58 @@
         <v>12</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F315" s="5">
         <v>315</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="H315" s="5"/>
       <c r="I315" s="5" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="J315" s="5"/>
       <c r="K315" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F316" s="2">
+      <c r="A316" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F316" s="5">
         <v>316</v>
       </c>
-      <c r="G316" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H316" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I316" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J316" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K316" s="2" t="s">
-        <v>224</v>
+      <c r="G316" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="H316" s="5"/>
+      <c r="I316" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="J316" s="5"/>
+      <c r="K316" s="5" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
@@ -14819,31 +14880,31 @@
         <v>12</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="F317" s="2">
         <v>317</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="H317" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="J317" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K317" s="2" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
@@ -14854,31 +14915,31 @@
         <v>12</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F318" s="2">
         <v>318</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J318" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K318" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
@@ -14889,120 +14950,124 @@
         <v>12</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="F319" s="2">
         <v>319</v>
       </c>
       <c r="G319" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H319" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I319" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J319" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K319" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F320" s="2">
+        <v>320</v>
+      </c>
+      <c r="G320" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H319" s="2"/>
-      <c r="I319" s="2" t="s">
+      <c r="H320" s="2"/>
+      <c r="I320" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J319" s="2"/>
-      <c r="K319" s="2" t="s">
+      <c r="J320" s="2"/>
+      <c r="K320" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B320" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C320" s="11" t="s">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C321" s="11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D321" s="11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E321" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F321" s="11">
+        <v>321</v>
+      </c>
+      <c r="G321" s="11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H321" s="11"/>
+      <c r="I321" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J321" s="11"/>
+      <c r="K321" s="11" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C322" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D322" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E322" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F322" s="11">
+        <v>322</v>
+      </c>
+      <c r="G322" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="D320" s="11" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E320" s="11" t="s">
+      <c r="H322" s="11"/>
+      <c r="I322" s="11" t="s">
         <v>1063</v>
       </c>
-      <c r="F320" s="11">
-        <v>320</v>
-      </c>
-      <c r="G320" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H320" s="11"/>
-      <c r="I320" s="11" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J320" s="11"/>
-      <c r="K320" s="11" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B321" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C321" s="12" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D321" s="12" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E321" s="12" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F321" s="12">
-        <v>321</v>
-      </c>
-      <c r="G321" s="12" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H321" s="12"/>
-      <c r="I321" s="12" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J321" s="12"/>
-      <c r="K321" s="12" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B322" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C322" s="12" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D322" s="12" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E322" s="12" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F322" s="12">
-        <v>322</v>
-      </c>
-      <c r="G322" s="12" t="s">
-        <v>1082</v>
-      </c>
-      <c r="H322" s="12"/>
-      <c r="I322" s="12" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J322" s="12"/>
-      <c r="K322" s="12" t="s">
-        <v>1081</v>
+      <c r="J322" s="11"/>
+      <c r="K322" s="11" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
@@ -15013,27 +15078,27 @@
         <v>12</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>1074</v>
+        <v>1355</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>1078</v>
+        <v>1356</v>
       </c>
       <c r="E323" s="12" t="s">
-        <v>1088</v>
+        <v>1357</v>
       </c>
       <c r="F323" s="12">
         <v>323</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>1087</v>
+        <v>1358</v>
       </c>
       <c r="H323" s="12"/>
       <c r="I323" s="12" t="s">
-        <v>1078</v>
+        <v>1359</v>
       </c>
       <c r="J323" s="12"/>
       <c r="K323" s="12" t="s">
-        <v>1088</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
@@ -15044,27 +15109,27 @@
         <v>12</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="E324" s="12" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="F324" s="12">
         <v>324</v>
       </c>
       <c r="G324" s="12" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="H324" s="12"/>
       <c r="I324" s="12" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="J324" s="12"/>
       <c r="K324" s="12" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
@@ -15075,27 +15140,182 @@
         <v>12</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="F325" s="12">
         <v>325</v>
       </c>
       <c r="G325" s="12" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="H325" s="12"/>
       <c r="I325" s="12" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="J325" s="12"/>
       <c r="K325" s="12" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B326" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D326" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E326" s="12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F326" s="12">
+        <v>326</v>
+      </c>
+      <c r="G326" s="12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H326" s="12"/>
+      <c r="I326" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J326" s="12"/>
+      <c r="K326" s="12" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B327" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D327" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E327" s="12" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F327" s="12">
+        <v>327</v>
+      </c>
+      <c r="G327" s="12" t="s">
         <v>1084</v>
+      </c>
+      <c r="H327" s="12"/>
+      <c r="I327" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J327" s="12"/>
+      <c r="K327" s="12" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B328" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D328" s="12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E328" s="12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F328" s="12">
+        <v>328</v>
+      </c>
+      <c r="G328" s="12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H328" s="12"/>
+      <c r="I328" s="12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J328" s="12"/>
+      <c r="K328" s="12" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D329" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F329" s="8">
+        <v>329</v>
+      </c>
+      <c r="G329" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H329" s="8"/>
+      <c r="I329" s="8" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J329" s="8"/>
+      <c r="K329" s="8" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D330" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E330" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F330" s="8">
+        <v>330</v>
+      </c>
+      <c r="G330" s="8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H330" s="8"/>
+      <c r="I330" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J330" s="8"/>
+      <c r="K330" s="8" t="s">
+        <v>1363</v>
       </c>
     </row>
   </sheetData>

--- a/Training/KarveRibbon/KRibbon/Languages.xlsx
+++ b/Training/KarveRibbon/KRibbon/Languages.xlsx
@@ -4020,9 +4020,6 @@
     <t>lrbtnRecalcularPendientes</t>
   </si>
   <si>
-    <t>lrbtnRehacerÍndices</t>
-  </si>
-  <si>
     <t>lrbtnRelojesActivos</t>
   </si>
   <si>
@@ -4135,6 +4132,9 @@
   </si>
   <si>
     <t>The order of the groups of selected ribbon tabs, have been restored to their initial position.</t>
+  </si>
+  <si>
+    <t>lrbtnRehacerIndices</t>
   </si>
 </sst>
 </file>
@@ -13186,27 +13186,27 @@
         <v>12</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F263" s="8">
         <v>263</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H263" s="8"/>
       <c r="I263" s="8" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="J263" s="8"/>
       <c r="K263" s="8" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -14353,7 +14353,7 @@
         <v>12</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>1333</v>
+        <v>1371</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>1033</v>
@@ -14384,7 +14384,7 @@
         <v>12</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>1034</v>
@@ -14415,7 +14415,7 @@
         <v>12</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>1035</v>
@@ -14446,7 +14446,7 @@
         <v>12</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>1036</v>
@@ -14477,7 +14477,7 @@
         <v>12</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>1037</v>
@@ -14508,7 +14508,7 @@
         <v>12</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>1038</v>
@@ -14539,7 +14539,7 @@
         <v>12</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>1039</v>
@@ -14570,7 +14570,7 @@
         <v>12</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>1040</v>
@@ -14601,7 +14601,7 @@
         <v>12</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>1041</v>
@@ -14632,7 +14632,7 @@
         <v>12</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>1041</v>
@@ -14663,7 +14663,7 @@
         <v>12</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>1042</v>
@@ -14694,7 +14694,7 @@
         <v>12</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>1043</v>
@@ -14725,7 +14725,7 @@
         <v>12</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>1044</v>
@@ -14756,7 +14756,7 @@
         <v>12</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>1045</v>
@@ -14787,7 +14787,7 @@
         <v>12</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>1046</v>
@@ -14818,7 +14818,7 @@
         <v>12</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D315" s="5" t="s">
         <v>899</v>
@@ -14849,7 +14849,7 @@
         <v>12</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D316" s="5" t="s">
         <v>900</v>
@@ -15016,27 +15016,27 @@
         <v>12</v>
       </c>
       <c r="C321" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D321" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E321" s="11" t="s">
         <v>1368</v>
-      </c>
-      <c r="D321" s="11" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E321" s="11" t="s">
-        <v>1369</v>
       </c>
       <c r="F321" s="11">
         <v>321</v>
       </c>
       <c r="G321" s="11" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H321" s="11"/>
       <c r="I321" s="11" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="J321" s="11"/>
       <c r="K321" s="11" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
@@ -15078,27 +15078,27 @@
         <v>12</v>
       </c>
       <c r="C323" s="12" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D323" s="12" t="s">
         <v>1355</v>
       </c>
-      <c r="D323" s="12" t="s">
+      <c r="E323" s="12" t="s">
         <v>1356</v>
-      </c>
-      <c r="E323" s="12" t="s">
-        <v>1357</v>
       </c>
       <c r="F323" s="12">
         <v>323</v>
       </c>
       <c r="G323" s="12" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H323" s="12"/>
       <c r="I323" s="12" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="J323" s="12"/>
       <c r="K323" s="12" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
@@ -15264,27 +15264,27 @@
         <v>12</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F329" s="8">
         <v>329</v>
       </c>
       <c r="G329" s="8" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H329" s="8"/>
       <c r="I329" s="8" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="J329" s="8"/>
       <c r="K329" s="8" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
@@ -15295,27 +15295,27 @@
         <v>12</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E330" s="8" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F330" s="8">
         <v>330</v>
       </c>
       <c r="G330" s="8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H330" s="8"/>
       <c r="I330" s="8" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="J330" s="8"/>
       <c r="K330" s="8" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
   </sheetData>
